--- a/uploads/Community Exploitation phase 1.xlsx
+++ b/uploads/Community Exploitation phase 1.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15195" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Ernst &amp; Young</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,13 +67,13 @@
     <t>Person in charge</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Due Date for action</t>
   </si>
   <si>
     <t>State authority accountable for compliance</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>Input (information and documents required for compliance)</t>
@@ -123,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -132,13 +132,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -153,22 +146,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -177,91 +170,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -270,54 +188,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,31 +519,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M7"/>
+  <dimension ref="A4:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,90 +566,90 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="5"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="153.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="10" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -774,7 +658,8 @@
     <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
